--- a/OpenFace/openface-resultados.xlsx
+++ b/OpenFace/openface-resultados.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\isilon-l3\Perfil-l3\thais\Documents\TCC-master\OpenFace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsuba\Desktop\TCC-master\OpenFace\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB6477E-5D36-4F50-9B12-7FF2ABCE2133}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resultados-openface-final" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'resultados-openface-final'!$A$1:$F$2641</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -118,7 +119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -955,18 +956,6 @@
   <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1018,15 +1007,6 @@
     <xf numFmtId="164" fontId="13" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1072,29 +1052,8 @@
     <xf numFmtId="46" fontId="13" fillId="33" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1102,8 +1061,50 @@
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1136,10 +1137,10 @@
     <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorreto" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutra" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -1425,7 +1426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F2641"/>
   <sheetViews>
@@ -54264,7 +54265,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F2641">
+  <autoFilter ref="A1:F2641" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="2"/>
@@ -54281,10 +54282,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
@@ -54303,1141 +54304,1141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="38"/>
+      <c r="G1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="38"/>
+      <c r="I1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="2" t="s">
+      <c r="J1" s="38"/>
+      <c r="K1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="51" t="s">
+      <c r="K2" s="40"/>
+      <c r="L2" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="26">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19">
         <f>SUM(C3,G3,I3)</f>
         <v>7</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="20">
         <v>5</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="21">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="29">
-        <v>2</v>
-      </c>
-      <c r="H3" s="31">
+      <c r="G3" s="22">
+        <v>2</v>
+      </c>
+      <c r="H3" s="24">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="33">
+      <c r="K3" s="26">
         <v>1.5046296296296294E-3</v>
       </c>
-      <c r="L3" s="51" t="s">
+      <c r="L3" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" s="26">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19">
         <f t="shared" ref="B4:B24" si="0">SUM(C4,G4,I4)</f>
         <v>4</v>
       </c>
-      <c r="C4" s="11">
-        <v>1</v>
-      </c>
-      <c r="D4" s="34">
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="27">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="13">
-        <v>3</v>
-      </c>
-      <c r="J4" s="14">
+      <c r="I4" s="9">
+        <v>3</v>
+      </c>
+      <c r="J4" s="10">
         <v>1.0416666666666666E-5</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="26">
         <v>1.5046296296296294E-3</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>3</v>
-      </c>
-      <c r="B5" s="26">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C5" s="11">
-        <v>2</v>
-      </c>
-      <c r="D5" s="34">
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="27">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="E5" s="36">
-        <v>3</v>
-      </c>
-      <c r="F5" s="34">
+      <c r="E5" s="29">
+        <v>3</v>
+      </c>
+      <c r="F5" s="27">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="13">
-        <v>2</v>
-      </c>
-      <c r="J5" s="14">
+      <c r="I5" s="9">
+        <v>2</v>
+      </c>
+      <c r="J5" s="10">
         <v>1.0416666666666666E-5</v>
       </c>
-      <c r="K5" s="33">
+      <c r="K5" s="26">
         <v>1.5046296296296301E-3</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>4</v>
-      </c>
-      <c r="B6" s="26">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="19">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="11">
-        <v>3</v>
-      </c>
-      <c r="D6" s="31">
+      <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="24">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="E6" s="11">
-        <v>1</v>
-      </c>
-      <c r="F6" s="37">
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="30">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="G6" s="12">
-        <v>1</v>
-      </c>
-      <c r="H6" s="31">
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="33">
+      <c r="K6" s="26">
         <v>1.5046296296296301E-3</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="19">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="11">
-        <v>2</v>
-      </c>
-      <c r="D7" s="34">
+      <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="27">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="E7" s="12">
-        <v>7</v>
-      </c>
-      <c r="F7" s="37">
+      <c r="E7" s="8">
+        <v>7</v>
+      </c>
+      <c r="F7" s="30">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="G7" s="12">
-        <v>1</v>
-      </c>
-      <c r="H7" s="34">
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="27">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="I7" s="13">
-        <v>1</v>
-      </c>
-      <c r="J7" s="14">
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="10">
         <v>1.0416666666666666E-5</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="26">
         <v>1.5046296296296294E-3</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="11">
-        <v>3</v>
-      </c>
-      <c r="D8" s="31">
+      <c r="C8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" s="24">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="E8" s="11">
-        <v>1</v>
-      </c>
-      <c r="F8" s="34">
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="27">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="G8" s="12">
-        <v>1</v>
-      </c>
-      <c r="H8" s="31">
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="24">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="I8" s="13">
-        <v>1</v>
-      </c>
-      <c r="J8" s="14">
+      <c r="I8" s="9">
+        <v>1</v>
+      </c>
+      <c r="J8" s="10">
         <v>1.0416666666666666E-5</v>
       </c>
-      <c r="K8" s="33">
+      <c r="K8" s="26">
         <v>1.5046296296296294E-3</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>7</v>
-      </c>
-      <c r="B9" s="26">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="19">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C9" s="11">
-        <v>2</v>
-      </c>
-      <c r="D9" s="34">
+      <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" s="27">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="7">
         <v>5</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="27">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="G9" s="12">
-        <v>1</v>
-      </c>
-      <c r="H9" s="34">
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="27">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="35" t="s">
+      <c r="J9" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="33">
+      <c r="K9" s="26">
         <v>1.5046296296296301E-3</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="26">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="19">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C10" s="11">
-        <v>3</v>
-      </c>
-      <c r="D10" s="34">
+      <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="27">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="E10" s="12">
-        <v>2</v>
-      </c>
-      <c r="F10" s="31">
+      <c r="E10" s="8">
+        <v>2</v>
+      </c>
+      <c r="F10" s="24">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="13">
-        <v>1</v>
-      </c>
-      <c r="J10" s="14">
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
+      <c r="J10" s="10">
         <v>1.0416666666666666E-5</v>
       </c>
-      <c r="K10" s="33">
+      <c r="K10" s="26">
         <v>1.5046296296296301E-3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="19">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C11" s="11">
-        <v>3</v>
-      </c>
-      <c r="D11" s="37">
+      <c r="C11" s="7">
+        <v>3</v>
+      </c>
+      <c r="D11" s="30">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="13">
-        <v>1</v>
-      </c>
-      <c r="J11" s="14">
+      <c r="I11" s="9">
+        <v>1</v>
+      </c>
+      <c r="J11" s="10">
         <v>1.0416666666666666E-5</v>
       </c>
-      <c r="K11" s="33">
+      <c r="K11" s="26">
         <v>1.5046296296296301E-3</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="19">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C12" s="11">
-        <v>3</v>
-      </c>
-      <c r="D12" s="37">
+      <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="30">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="E12" s="11">
-        <v>1</v>
-      </c>
-      <c r="F12" s="34">
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="27">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="13">
-        <v>1</v>
-      </c>
-      <c r="J12" s="14">
+      <c r="I12" s="9">
+        <v>1</v>
+      </c>
+      <c r="J12" s="10">
         <v>1.0416666666666666E-5</v>
       </c>
-      <c r="K12" s="33">
+      <c r="K12" s="26">
         <v>1.5046296296296301E-3</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C13" s="11">
-        <v>4</v>
-      </c>
-      <c r="D13" s="37">
+      <c r="C13" s="7">
+        <v>4</v>
+      </c>
+      <c r="D13" s="30">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="E13" s="11">
-        <v>3</v>
-      </c>
-      <c r="F13" s="34">
+      <c r="E13" s="7">
+        <v>3</v>
+      </c>
+      <c r="F13" s="27">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="G13" s="12">
-        <v>1</v>
-      </c>
-      <c r="H13" s="34">
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+      <c r="H13" s="27">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="35" t="s">
+      <c r="J13" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="31">
         <v>1.5046296296296301E-3</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="19">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="7">
         <v>6</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="30">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="35" t="s">
+      <c r="F14" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="12">
-        <v>2</v>
-      </c>
-      <c r="H14" s="34">
+      <c r="G14" s="8">
+        <v>2</v>
+      </c>
+      <c r="H14" s="27">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="I14" s="13">
-        <v>1</v>
-      </c>
-      <c r="J14" s="14">
+      <c r="I14" s="9">
+        <v>1</v>
+      </c>
+      <c r="J14" s="10">
         <v>1.0416666666666666E-5</v>
       </c>
-      <c r="K14" s="33">
+      <c r="K14" s="26">
         <v>1.5393518518518519E-3</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="11">
-        <v>3</v>
-      </c>
-      <c r="D15" s="37">
+      <c r="C15" s="7">
+        <v>3</v>
+      </c>
+      <c r="D15" s="30">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="E15" s="11">
-        <v>1</v>
-      </c>
-      <c r="F15" s="34">
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="27">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="G15" s="11">
-        <v>2</v>
-      </c>
-      <c r="H15" s="37">
+      <c r="G15" s="7">
+        <v>2</v>
+      </c>
+      <c r="H15" s="30">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="I15" s="13">
-        <v>1</v>
-      </c>
-      <c r="J15" s="14">
+      <c r="I15" s="9">
+        <v>1</v>
+      </c>
+      <c r="J15" s="10">
         <v>1.0416666666666666E-5</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="31">
         <v>1.5046296296296301E-3</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C16" s="11">
-        <v>4</v>
-      </c>
-      <c r="D16" s="37">
+      <c r="C16" s="7">
+        <v>4</v>
+      </c>
+      <c r="D16" s="30">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="E16" s="12">
-        <v>1</v>
-      </c>
-      <c r="F16" s="34">
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+      <c r="F16" s="27">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="G16" s="12">
-        <v>1</v>
-      </c>
-      <c r="H16" s="34">
+      <c r="G16" s="8">
+        <v>1</v>
+      </c>
+      <c r="H16" s="27">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="I16" s="13">
-        <v>1</v>
-      </c>
-      <c r="J16" s="14">
+      <c r="I16" s="9">
+        <v>1</v>
+      </c>
+      <c r="J16" s="10">
         <v>1.0416666666666666E-5</v>
       </c>
-      <c r="K16" s="38">
+      <c r="K16" s="31">
         <v>1.4930555555555556E-3</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="19">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C17" s="11">
-        <v>2</v>
-      </c>
-      <c r="D17" s="37">
+      <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="30">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="35" t="s">
+      <c r="H17" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="13">
-        <v>2</v>
-      </c>
-      <c r="J17" s="14">
+      <c r="I17" s="9">
+        <v>2</v>
+      </c>
+      <c r="J17" s="10">
         <v>1.0416666666666666E-5</v>
       </c>
-      <c r="K17" s="38">
+      <c r="K17" s="31">
         <v>1.4930555555555556E-3</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C18" s="11">
-        <v>3</v>
-      </c>
-      <c r="D18" s="37">
+      <c r="C18" s="7">
+        <v>3</v>
+      </c>
+      <c r="D18" s="30">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="E18" s="11">
-        <v>2</v>
-      </c>
-      <c r="F18" s="37">
+      <c r="E18" s="7">
+        <v>2</v>
+      </c>
+      <c r="F18" s="30">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="35" t="s">
+      <c r="H18" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="13">
-        <v>2</v>
-      </c>
-      <c r="J18" s="14">
+      <c r="I18" s="9">
+        <v>2</v>
+      </c>
+      <c r="J18" s="10">
         <v>1.0416666666666666E-5</v>
       </c>
-      <c r="K18" s="38">
+      <c r="K18" s="31">
         <v>1.5046296296296301E-3</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C19" s="11">
-        <v>3</v>
-      </c>
-      <c r="D19" s="37">
+      <c r="C19" s="7">
+        <v>3</v>
+      </c>
+      <c r="D19" s="30">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="E19" s="11">
-        <v>4</v>
-      </c>
-      <c r="F19" s="37">
+      <c r="E19" s="7">
+        <v>4</v>
+      </c>
+      <c r="F19" s="30">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="35" t="s">
+      <c r="H19" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="13">
-        <v>3</v>
-      </c>
-      <c r="J19" s="14">
+      <c r="I19" s="9">
+        <v>3</v>
+      </c>
+      <c r="J19" s="10">
         <v>1.0416666666666666E-5</v>
       </c>
-      <c r="K19" s="38">
+      <c r="K19" s="31">
         <v>1.4930555555555556E-3</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="19">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C20" s="11">
-        <v>2</v>
-      </c>
-      <c r="D20" s="37">
+      <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="30">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="E20" s="11">
-        <v>1</v>
-      </c>
-      <c r="F20" s="37">
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+      <c r="F20" s="30">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="35" t="s">
+      <c r="H20" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="13">
-        <v>2</v>
-      </c>
-      <c r="J20" s="14">
+      <c r="I20" s="9">
+        <v>2</v>
+      </c>
+      <c r="J20" s="10">
         <v>1.0416666666666666E-5</v>
       </c>
-      <c r="K20" s="38">
+      <c r="K20" s="31">
         <v>1.5046296296296301E-3</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="19">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="11">
-        <v>1</v>
-      </c>
-      <c r="D21" s="37">
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="30">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="8">
         <v>5</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="30">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="8">
         <v>11</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="30">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="35" t="s">
+      <c r="J21" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="38">
+      <c r="K21" s="31">
         <v>1.5162037037037036E-3</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C22" s="11">
-        <v>4</v>
-      </c>
-      <c r="D22" s="37">
+      <c r="C22" s="7">
+        <v>4</v>
+      </c>
+      <c r="D22" s="30">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="F22" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="11">
-        <v>2</v>
-      </c>
-      <c r="H22" s="37">
+      <c r="G22" s="7">
+        <v>2</v>
+      </c>
+      <c r="H22" s="30">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="I22" s="13">
-        <v>2</v>
-      </c>
-      <c r="J22" s="37">
+      <c r="I22" s="9">
+        <v>2</v>
+      </c>
+      <c r="J22" s="30">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="K22" s="38">
+      <c r="K22" s="31">
         <v>1.6319444444444445E-3</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C23" s="11">
-        <v>2</v>
-      </c>
-      <c r="D23" s="37">
+      <c r="C23" s="7">
+        <v>2</v>
+      </c>
+      <c r="D23" s="30">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="35" t="s">
+      <c r="F23" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="12">
-        <v>2</v>
-      </c>
-      <c r="H23" s="37">
+      <c r="G23" s="8">
+        <v>2</v>
+      </c>
+      <c r="H23" s="30">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="I23" s="13">
-        <v>2</v>
-      </c>
-      <c r="J23" s="37">
+      <c r="I23" s="9">
+        <v>2</v>
+      </c>
+      <c r="J23" s="30">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="K23" s="38">
+      <c r="K23" s="31">
         <v>1.6087962962962963E-3</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15">
+      <c r="A24" s="11">
         <v>22</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C24" s="16">
-        <v>2</v>
-      </c>
-      <c r="D24" s="37">
+      <c r="C24" s="12">
+        <v>2</v>
+      </c>
+      <c r="D24" s="30">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="35" t="s">
+      <c r="F24" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="17">
-        <v>4</v>
-      </c>
-      <c r="H24" s="37">
+      <c r="G24" s="13">
+        <v>4</v>
+      </c>
+      <c r="H24" s="30">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="35" t="s">
+      <c r="J24" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="K24" s="38">
+      <c r="K24" s="31">
         <v>1.5393518518518519E-3</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="39">
+      <c r="B25" s="32">
         <f>SUM(B3:B24)</f>
         <v>120</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="15">
         <f>SUM(C3:C24)</f>
         <v>63</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="16">
         <f>AVERAGE(D3:D24)</f>
         <v>1.1574074074074079E-5</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="15">
         <f t="shared" ref="E25:K25" si="1">SUM(E3:E24)</f>
         <v>37</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="16">
         <f>AVERAGE(F3:F24)</f>
         <v>1.1574074074074075E-5</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="15">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="16">
         <f>AVERAGE(H3:H24)</f>
         <v>1.1574074074074075E-5</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="17">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="J25" s="40">
+      <c r="J25" s="33">
         <f>AVERAGE(J3:J24)</f>
         <v>1.0561342592592595E-5</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K25" s="18">
         <f t="shared" si="1"/>
         <v>3.3379629629629634E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="35" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="42">
-        <v>2</v>
-      </c>
-      <c r="B2" s="43">
-        <v>1</v>
+      <c r="A2" s="45">
+        <v>2</v>
+      </c>
+      <c r="B2" s="48">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="46">
+      <c r="A3" s="47"/>
+      <c r="B3" s="49">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45">
+      <c r="A4" s="46"/>
+      <c r="B4" s="50">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="42">
-        <v>3</v>
-      </c>
-      <c r="B5" s="43">
+      <c r="A5" s="45">
+        <v>3</v>
+      </c>
+      <c r="B5" s="48">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44"/>
-      <c r="B6" s="45">
+      <c r="A6" s="46"/>
+      <c r="B6" s="50">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="47">
+      <c r="A7" s="34">
         <v>5</v>
       </c>
-      <c r="B7" s="48">
+      <c r="B7" s="51">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47">
+      <c r="A8" s="34">
         <v>6</v>
       </c>
-      <c r="B8" s="48">
-        <v>4</v>
+      <c r="B8" s="51">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47">
-        <v>8</v>
-      </c>
-      <c r="B9" s="48">
+      <c r="A9" s="34">
+        <v>8</v>
+      </c>
+      <c r="B9" s="51">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47">
+      <c r="A10" s="34">
         <v>9</v>
       </c>
-      <c r="B10" s="48">
-        <v>3</v>
+      <c r="B10" s="51">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47">
+      <c r="A11" s="34">
         <v>10</v>
       </c>
-      <c r="B11" s="48">
+      <c r="B11" s="51">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47">
+      <c r="A12" s="34">
         <v>12</v>
       </c>
-      <c r="B12" s="48">
-        <v>9</v>
+      <c r="B12" s="51">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47">
+      <c r="A13" s="34">
         <v>13</v>
       </c>
-      <c r="B13" s="48">
+      <c r="B13" s="51">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47">
+      <c r="A14" s="34">
         <v>14</v>
       </c>
-      <c r="B14" s="48">
+      <c r="B14" s="51">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="42">
+      <c r="A15" s="45">
         <v>15</v>
       </c>
-      <c r="B15" s="43">
-        <v>1</v>
+      <c r="B15" s="48">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="44"/>
-      <c r="B16" s="45">
+      <c r="A16" s="46"/>
+      <c r="B16" s="50">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="42">
+      <c r="A17" s="45">
         <v>16</v>
       </c>
-      <c r="B17" s="43">
-        <v>4</v>
+      <c r="B17" s="48">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45">
+      <c r="A18" s="46"/>
+      <c r="B18" s="50">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="42">
+      <c r="A19" s="45">
         <v>17</v>
       </c>
-      <c r="B19" s="43">
-        <v>2</v>
+      <c r="B19" s="48">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="46">
-        <v>4</v>
+      <c r="A20" s="47"/>
+      <c r="B20" s="49">
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="44"/>
-      <c r="B21" s="45">
+      <c r="A21" s="46"/>
+      <c r="B21" s="50">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="42">
+      <c r="A22" s="45">
         <v>18</v>
       </c>
-      <c r="B22" s="43">
-        <v>1</v>
+      <c r="B22" s="48">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="44"/>
-      <c r="B23" s="45">
-        <v>2</v>
+      <c r="A23" s="46"/>
+      <c r="B23" s="50">
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="42">
+      <c r="A24" s="45">
         <v>20</v>
       </c>
-      <c r="B24" s="43">
-        <v>2</v>
+      <c r="B24" s="48">
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="44"/>
-      <c r="B25" s="45">
-        <v>5</v>
+      <c r="A25" s="46"/>
+      <c r="B25" s="50">
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="42">
+      <c r="A26" s="45">
         <v>21</v>
       </c>
-      <c r="B26" s="43">
-        <v>2</v>
+      <c r="B26" s="48">
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="44"/>
-      <c r="B27" s="45">
-        <v>3</v>
+      <c r="A27" s="46"/>
+      <c r="B27" s="50">
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="50">
+      <c r="B28" s="36">
         <f>COUNT(B2:B27)</f>
         <v>26</v>
       </c>
